--- a/public/mydata/motion_control_system_requirements.xlsx
+++ b/public/mydata/motion_control_system_requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SingurK\Documents\Data\Personal\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SingurK\Documents\Data\Personal\Apps\git_repo\Kausi-hub.github.io\public\mydata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1FE195-5916-4E4F-8125-3191CE865736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A50F0A-830F-4677-9DD5-ECC73FBCF861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1308" yWindow="1644" windowWidth="17280" windowHeight="10044" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System Requirements" sheetId="1" r:id="rId1"/>
@@ -994,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1025,6 +1025,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1307,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1318,9 +1321,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>259</v>
       </c>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
@@ -1610,6 +1614,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1618,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9BF03-FD0F-446C-85E8-96515BDB6AF4}">
   <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,9 +1636,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>252</v>
       </c>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -1765,9 +1773,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>253</v>
       </c>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
@@ -1882,6 +1891,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1891,7 +1904,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2144,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DF5DD9-6A22-4413-A368-BED35DF2C99E}">
   <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2158,9 +2171,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>255</v>
       </c>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -2457,6 +2471,9 @@
       <c r="B38" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/public/mydata/motion_control_system_requirements.xlsx
+++ b/public/mydata/motion_control_system_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SingurK\Documents\Data\Personal\Apps\git_repo\Kausi-hub.github.io\public\mydata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A50F0A-830F-4677-9DD5-ECC73FBCF861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FA546-3AA2-4F27-BEBA-0C3A657DA75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="1644" windowWidth="17280" windowHeight="10044" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1308" yWindow="1644" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System Requirements" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="265">
   <si>
     <t>1. Functional Requirements</t>
   </si>
@@ -425,51 +425,6 @@
   </si>
   <si>
     <t>FSR.6, FSR.2, FSR.7</t>
-  </si>
-  <si>
-    <r>
-      <t>Item</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Motion Control Actuation System</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Execute lateral and longitudinal vehicle motion commands by actuating steering, braking, and throttle systems, based on high-level trajectory inputs.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Operating Modes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Autonomous driving mode, manual mode, fallback mode</t>
-    </r>
   </si>
   <si>
     <r>
@@ -553,9 +508,6 @@
     <t>S2</t>
   </si>
   <si>
-    <t>Degraded actuator performance (e.g., slow brake response)</t>
-  </si>
-  <si>
     <t>Mountain descent</t>
   </si>
   <si>
@@ -916,18 +868,6 @@
     <t>These are derived from the system safety concept and are allocated to hardware and software components.</t>
   </si>
   <si>
-    <t>System Safety Concept (SSC) for Motion Control Actuation</t>
-  </si>
-  <si>
-    <t>1. Item Definition</t>
-  </si>
-  <si>
-    <t>2. Hazard Analysis and Risk Assessment (HARA)</t>
-  </si>
-  <si>
-    <t>3. Safety Goals (SGs)</t>
-  </si>
-  <si>
     <t>System-Level Requirements: Motion Control Actuation for an Autonomous Vehicle</t>
   </si>
   <si>
@@ -935,13 +875,46 @@
   </si>
   <si>
     <t>Allocation Overview</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Motion Control Actuation System</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Operating Modes</t>
+  </si>
+  <si>
+    <t>Autonomous driving mode, manual mode, fallback mode</t>
+  </si>
+  <si>
+    <t>Execute lateral and longitudinal vehicle motion commands by actuating steering, braking, and throttle, based on trajectory inputs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degraded actuator performance </t>
+  </si>
+  <si>
+    <t>Item Definition</t>
+  </si>
+  <si>
+    <t>Hazard Analysis and Risk Assessment (HARA)</t>
+  </si>
+  <si>
+    <t>Safety Goals (SGs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Safety Concept </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,6 +946,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -994,7 +983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1027,6 +1016,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,10 +1319,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
@@ -1532,7 +1530,8 @@
       </c>
     </row>
     <row r="29" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1577,7 +1576,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1614,9 +1613,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1625,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9BF03-FD0F-446C-85E8-96515BDB6AF4}">
   <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,15 +1631,15 @@
     <col min="5" max="5" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="12"/>
+    <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="C1" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -1773,10 +1769,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
@@ -1891,10 +1887,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B13:C13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1904,7 +1896,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1913,14 +1905,14 @@
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>251</v>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1928,10 +1920,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>67</v>
@@ -1939,13 +1931,13 @@
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
         <v>71</v>
@@ -1953,13 +1945,13 @@
     </row>
     <row r="5" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
         <v>79</v>
@@ -1967,18 +1959,18 @@
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
         <v>75</v>
@@ -1986,13 +1978,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
         <v>75</v>
@@ -2000,18 +1992,18 @@
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
         <v>79</v>
@@ -2019,13 +2011,13 @@
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D11" t="s">
         <v>71</v>
@@ -2033,13 +2025,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D12" t="s">
         <v>75</v>
@@ -2047,18 +2039,18 @@
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D14" t="s">
         <v>75</v>
@@ -2066,13 +2058,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D15" t="s">
         <v>79</v>
@@ -2080,18 +2072,18 @@
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -2099,13 +2091,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
         <v>95</v>
@@ -2113,18 +2105,18 @@
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D20" t="s">
         <v>75</v>
@@ -2132,13 +2124,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
@@ -2155,104 +2147,131 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DF5DD9-6A22-4413-A368-BED35DF2C99E}">
-  <dimension ref="B1:G38"/>
+  <dimension ref="B1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
     <col min="3" max="3" width="55.21875" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" s="12"/>
+    <row r="1" spans="2:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="C1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>256</v>
+      <c r="C2" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>132</v>
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>134</v>
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+    <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>148</v>
@@ -2269,13 +2288,13 @@
         <v>150</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>75</v>
@@ -2289,191 +2308,168 @@
         <v>153</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="G16" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
+    <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="5"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
+      <c r="B37" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2483,7 +2479,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2497,7 +2493,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -2550,114 +2546,114 @@
     </row>
     <row r="11" spans="2:6" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>75</v>
@@ -2666,10 +2662,10 @@
         <v>114</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/public/mydata/motion_control_system_requirements.xlsx
+++ b/public/mydata/motion_control_system_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SingurK\Documents\Data\Personal\Apps\git_repo\Kausi-hub.github.io\public\mydata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FA546-3AA2-4F27-BEBA-0C3A657DA75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEEA351-28AA-41D9-9DE3-DBFA63AFB037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1308" yWindow="1644" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="265">
   <si>
-    <t>1. Functional Requirements</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>The control system shall support multiple drive modes (e.g., normal, sport, eco, autonomous).</t>
   </si>
   <si>
-    <t>2. Performance Requirements</t>
-  </si>
-  <si>
     <t>P.1</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>The system shall operate reliably at vehicle speeds from 0 to 130 km/h.</t>
   </si>
   <si>
-    <t>3. Safety and Fault Tolerance Requirements</t>
-  </si>
-  <si>
     <t>S.1</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>The system shall perform periodic self-tests on power-up and during operation.</t>
   </si>
   <si>
-    <t>4. Interface Requirements</t>
-  </si>
-  <si>
     <t>I.1</t>
   </si>
   <si>
@@ -181,9 +169,6 @@
     <t>Diagnostic and calibration interfaces shall be accessible via secure OBD-II or Ethernet ports.</t>
   </si>
   <si>
-    <t>5. Environmental &amp; Reliability Requirements</t>
-  </si>
-  <si>
     <t>E.1</t>
   </si>
   <si>
@@ -206,9 +191,6 @@
   </si>
   <si>
     <t>MTBF (Mean Time Between Failures) of the motion control actuation system shall exceed 10,000 hours.</t>
-  </si>
-  <si>
-    <t>6. Cybersecurity Requirements</t>
   </si>
   <si>
     <t>C.1</t>
@@ -909,12 +891,30 @@
   <si>
     <t xml:space="preserve">System Safety Concept </t>
   </si>
+  <si>
+    <t>Functional Requirements</t>
+  </si>
+  <si>
+    <t>Performance Requirements</t>
+  </si>
+  <si>
+    <t>Safety and Fault Tolerance Requirements</t>
+  </si>
+  <si>
+    <t>Interface Requirements</t>
+  </si>
+  <si>
+    <t>Environmental &amp; Reliability Requirements</t>
+  </si>
+  <si>
+    <t>Cybersecurity Requirements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,6 +962,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -983,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1014,17 +1022,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1308,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1318,301 +1329,314 @@
     <col min="3" max="3" width="108.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
-        <v>251</v>
-      </c>
+    <row r="1" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B3" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B10" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B17" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B24" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="B29" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="C35" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="B35" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B29:C29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1621,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9BF03-FD0F-446C-85E8-96515BDB6AF4}">
   <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1632,261 +1656,267 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="C1" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="C13" s="15" t="s">
-        <v>249</v>
-      </c>
+      <c r="B13" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="15"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1896,7 +1926,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1906,240 +1936,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>200</v>
-      </c>
+      <c r="A1" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>212</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C17" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="16"/>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2150,7 +2196,7 @@
   <dimension ref="B1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2163,283 +2209,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="C1" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="B1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
-        <v>262</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
-        <v>263</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.3">
@@ -2470,6 +2520,12 @@
       <c r="B37" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2479,196 +2535,201 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="42.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="55.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>253</v>
-      </c>
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="15"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>252</v>
-      </c>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="21" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="13"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/mydata/motion_control_system_requirements.xlsx
+++ b/public/mydata/motion_control_system_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SingurK\Documents\Data\Personal\Apps\git_repo\Kausi-hub.github.io\public\mydata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEEA351-28AA-41D9-9DE3-DBFA63AFB037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEB3627-942C-4790-898F-566D5C0E9443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1308" yWindow="1644" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="262">
   <si>
     <t>ID</t>
   </si>
@@ -211,9 +211,6 @@
     <t>The system shall support secure boot and over-the-air (OTA) firmware updates.</t>
   </si>
   <si>
-    <t>TSR ID</t>
-  </si>
-  <si>
     <t>ASIL</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
   </si>
   <si>
     <t>Aids in root cause analysis and validation.</t>
-  </si>
-  <si>
-    <t>FSR ID</t>
   </si>
   <si>
     <t>FSR.1</t>
@@ -439,15 +433,6 @@
     <t>Operational Situation</t>
   </si>
   <si>
-    <t>Severity (S)</t>
-  </si>
-  <si>
-    <t>Exposure (E)</t>
-  </si>
-  <si>
-    <t>Controllability (C)</t>
-  </si>
-  <si>
     <t>Unintended steering angle</t>
   </si>
   <si>
@@ -847,9 +832,6 @@
     <t>Functional Safety Requirements (FSRs)</t>
   </si>
   <si>
-    <t>These are derived from the system safety concept and are allocated to hardware and software components.</t>
-  </si>
-  <si>
     <t>System-Level Requirements: Motion Control Actuation for an Autonomous Vehicle</t>
   </si>
   <si>
@@ -908,13 +890,22 @@
   </si>
   <si>
     <t>Cybersecurity Requirements</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Controllability</t>
+  </si>
+  <si>
+    <t>Exposure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,14 +916,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -991,12 +974,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1012,9 +992,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1022,20 +999,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C39"/>
+  <dimension ref="B1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,323 +1325,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="14"/>
+      <c r="C2" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="14"/>
+    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="14"/>
+    <row r="16" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>29</v>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>31</v>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>33</v>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C24" s="14"/>
+    <row r="23" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>39</v>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>41</v>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C29" s="14"/>
+    <row r="28" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>51</v>
+      <c r="C33" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C35" s="14"/>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="4" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B29:C29"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9BF03-FD0F-446C-85E8-96515BDB6AF4}">
-  <dimension ref="B1:E21"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1655,268 +1628,247 @@
     <col min="5" max="5" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>244</v>
-      </c>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="E13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E14" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>97</v>
+      <c r="E15" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>100</v>
+      <c r="B17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>113</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B13:C13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1926,7 +1878,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1936,245 +1888,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="16"/>
+      <c r="A2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="B12" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="B14" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="B17" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B18" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="16"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" t="s">
-        <v>227</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="C20" t="s">
         <v>231</v>
       </c>
-      <c r="C15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>234</v>
       </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" t="s">
-        <v>239</v>
-      </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2195,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DF5DD9-6A22-4413-A368-BED35DF2C99E}">
   <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2209,322 +2161,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="15"/>
+      <c r="B1" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="12"/>
       <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="C15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="F18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C19" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="C20" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+      <c r="C21" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
+      <c r="C22" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+      <c r="C23" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+      <c r="C24" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="5"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
+      <c r="B37" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="16">
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2532,10 +2541,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D881FED9-9636-49CF-AE56-9DB1E4772C74}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2547,188 +2556,204 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="B2" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="19" t="s">
         <v>115</v>
       </c>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="19" t="s">
         <v>117</v>
       </c>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="19" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="19" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="13"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>167</v>
+      <c r="B13" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="C15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="C16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>69</v>
+      <c r="F16" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="8">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/mydata/motion_control_system_requirements.xlsx
+++ b/public/mydata/motion_control_system_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SingurK\Documents\Data\Personal\Apps\git_repo\Kausi-hub.github.io\public\mydata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEB3627-942C-4790-898F-566D5C0E9443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D73C9D2-DB58-4CD4-B0C3-81D9F83356F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="1644" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1308" yWindow="1644" windowWidth="17280" windowHeight="10044" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System Requirements" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="260">
   <si>
     <t>ID</t>
   </si>
@@ -403,30 +403,6 @@
     <t>FSR.6, FSR.2, FSR.7</t>
   </si>
   <si>
-    <r>
-      <t>Interfaces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>Vehicle Control System (Trajectory Planner, Decision Layer)</t>
-  </si>
-  <si>
-    <t>Sensors (IMU, wheel speed, steering angle sensors)</t>
-  </si>
-  <si>
-    <t>Actuators (electric steering rack, brake-by-wire, throttle-by-wire)</t>
-  </si>
-  <si>
     <t>Hazard</t>
   </si>
   <si>
@@ -530,9 +506,6 @@
   </si>
   <si>
     <t>Safety Goal (SG)</t>
-  </si>
-  <si>
-    <t>Example Implementation Artifact</t>
   </si>
   <si>
     <r>
@@ -899,6 +872,15 @@
   </si>
   <si>
     <t>Exposure</t>
+  </si>
+  <si>
+    <t>Example Implementation</t>
+  </si>
+  <si>
+    <t>Vehicle Control System (Trajectory Planner, Decision Layer), Sensors (IMU, wheel speed, steering angle sensors), Actuators (electric steering rack, brake-by-wire, throttle-by-wire)</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
   </si>
 </sst>
 </file>
@@ -974,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1002,17 +984,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1020,17 +1005,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1326,7 +1305,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.3">
@@ -1334,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -1390,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -1446,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -1502,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
@@ -1542,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
@@ -1582,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
@@ -1644,8 +1623,8 @@
     </row>
     <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="14" t="s">
-        <v>237</v>
+      <c r="C2" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1764,8 +1743,8 @@
     </row>
     <row r="11" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="14" t="s">
-        <v>238</v>
+      <c r="C11" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1888,26 +1867,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="13"/>
+      <c r="A2" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>60</v>
@@ -1915,13 +1894,13 @@
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
@@ -1929,33 +1908,33 @@
     </row>
     <row r="5" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="13"/>
+      <c r="A6" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
@@ -1963,33 +1942,33 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="13"/>
+      <c r="A9" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
         <v>72</v>
@@ -1997,13 +1976,13 @@
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
@@ -2011,33 +1990,33 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="13"/>
+      <c r="A13" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
@@ -2045,33 +2024,33 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16" s="13"/>
+      <c r="A16" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
@@ -2079,33 +2058,33 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="13"/>
+      <c r="A19" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
@@ -2113,13 +2092,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
@@ -2145,395 +2124,375 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DF5DD9-6A22-4413-A368-BED35DF2C99E}">
-  <dimension ref="B1:G37"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="55.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="55.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="B8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="17" t="s">
+      <c r="B9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="B11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B6:B8"/>
+  <mergeCells count="14">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2543,100 +2502,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D881FED9-9636-49CF-AE56-9DB1E4772C74}">
   <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>60</v>
@@ -2644,16 +2615,16 @@
     </row>
     <row r="11" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>68</v>
@@ -2661,16 +2632,16 @@
     </row>
     <row r="12" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>68</v>
@@ -2678,16 +2649,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>68</v>
@@ -2695,16 +2666,16 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>72</v>
@@ -2712,16 +2683,16 @@
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>72</v>
@@ -2729,16 +2700,16 @@
     </row>
     <row r="16" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>68</v>
@@ -2746,14 +2717,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/mydata/motion_control_system_requirements.xlsx
+++ b/public/mydata/motion_control_system_requirements.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SingurK\Documents\Data\Personal\Apps\git_repo\Kausi-hub.github.io\public\mydata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D73C9D2-DB58-4CD4-B0C3-81D9F83356F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755A46A-A259-4AE5-A654-AE6E442FDF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="1644" windowWidth="17280" windowHeight="10044" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="System Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="System Reqs" sheetId="1" r:id="rId1"/>
     <sheet name="TSRs_FSRs" sheetId="2" r:id="rId2"/>
     <sheet name="SSRs" sheetId="5" r:id="rId3"/>
     <sheet name="Safety Concept" sheetId="4" r:id="rId4"/>
@@ -993,6 +993,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1007,9 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,67 +2140,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -2376,11 +2376,11 @@
       <c r="A17" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="3" t="s">
         <v>68</v>
       </c>
@@ -2389,11 +2389,11 @@
       <c r="A18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="3" t="s">
         <v>68</v>
       </c>
@@ -2402,11 +2402,11 @@
       <c r="A19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="3" t="s">
         <v>68</v>
       </c>
@@ -2415,11 +2415,11 @@
       <c r="A20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="3" t="s">
         <v>72</v>
       </c>
@@ -2428,11 +2428,11 @@
       <c r="A21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="3" t="s">
         <v>72</v>
       </c>
@@ -2441,11 +2441,11 @@
       <c r="A22" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="3" t="s">
         <v>68</v>
       </c>
@@ -2502,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D881FED9-9636-49CF-AE56-9DB1E4772C74}">
   <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2515,77 +2515,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
